--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H2">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I2">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J2">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N2">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O2">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P2">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q2">
-        <v>577.6839976531385</v>
+        <v>13.29561084579644</v>
       </c>
       <c r="R2">
-        <v>5199.155978878246</v>
+        <v>119.660497612168</v>
       </c>
       <c r="S2">
-        <v>0.03789027199494725</v>
+        <v>0.002445684256424266</v>
       </c>
       <c r="T2">
-        <v>0.03789027199494725</v>
+        <v>0.002445684256424266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H3">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I3">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J3">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>107.146858</v>
       </c>
       <c r="O3">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P3">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q3">
-        <v>1985.613690313142</v>
+        <v>40.89083638514622</v>
       </c>
       <c r="R3">
-        <v>17870.52321281828</v>
+        <v>368.017527466316</v>
       </c>
       <c r="S3">
-        <v>0.1302363283533948</v>
+        <v>0.007521736002884795</v>
       </c>
       <c r="T3">
-        <v>0.1302363283533948</v>
+        <v>0.007521736002884795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H4">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I4">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J4">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N4">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O4">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P4">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q4">
-        <v>1470.513271770459</v>
+        <v>31.36953102816489</v>
       </c>
       <c r="R4">
-        <v>13234.61944593413</v>
+        <v>282.325779253484</v>
       </c>
       <c r="S4">
-        <v>0.09645091099272161</v>
+        <v>0.005770322932642938</v>
       </c>
       <c r="T4">
-        <v>0.09645091099272164</v>
+        <v>0.005770322932642938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H5">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I5">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J5">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N5">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O5">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P5">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q5">
-        <v>2883.743012797871</v>
+        <v>51.61055926392333</v>
       </c>
       <c r="R5">
-        <v>25953.68711518083</v>
+        <v>464.49503337531</v>
       </c>
       <c r="S5">
-        <v>0.1891445973271479</v>
+        <v>0.009493594068070644</v>
       </c>
       <c r="T5">
-        <v>0.189144597327148</v>
+        <v>0.009493594068070646</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.963977</v>
       </c>
       <c r="I6">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J6">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N6">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O6">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P6">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q6">
-        <v>17.193419919879</v>
+        <v>19.215380676252</v>
       </c>
       <c r="R6">
-        <v>154.740779278911</v>
+        <v>172.938426086268</v>
       </c>
       <c r="S6">
-        <v>0.001127715775292638</v>
+        <v>0.003534606611622248</v>
       </c>
       <c r="T6">
-        <v>0.001127715775292638</v>
+        <v>0.003534606611622248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.963977</v>
       </c>
       <c r="I7">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J7">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>107.146858</v>
       </c>
       <c r="O7">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P7">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q7">
         <v>59.097170970474</v>
@@ -883,10 +883,10 @@
         <v>531.874538734266</v>
       </c>
       <c r="S7">
-        <v>0.003876181253591966</v>
+        <v>0.01087073187670781</v>
       </c>
       <c r="T7">
-        <v>0.003876181253591966</v>
+        <v>0.01087073187670781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.963977</v>
       </c>
       <c r="I8">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J8">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N8">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O8">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P8">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q8">
-        <v>43.766405650872</v>
+        <v>45.336576659226</v>
       </c>
       <c r="R8">
-        <v>393.897650857848</v>
+        <v>408.029189933034</v>
       </c>
       <c r="S8">
-        <v>0.002870636924494574</v>
+        <v>0.008339515428183317</v>
       </c>
       <c r="T8">
-        <v>0.002870636924494574</v>
+        <v>0.008339515428183317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.963977</v>
       </c>
       <c r="I9">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J9">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N9">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O9">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P9">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q9">
-        <v>85.82790030791398</v>
+        <v>74.58976911046499</v>
       </c>
       <c r="R9">
-        <v>772.4511027712259</v>
+        <v>671.307921994185</v>
       </c>
       <c r="S9">
-        <v>0.005629448800094194</v>
+        <v>0.01372054478124714</v>
       </c>
       <c r="T9">
-        <v>0.005629448800094194</v>
+        <v>0.01372054478124714</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H10">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I10">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J10">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N10">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O10">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P10">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q10">
-        <v>33.48135824656078</v>
+        <v>37.06402042435955</v>
       </c>
       <c r="R10">
-        <v>301.332224219047</v>
+        <v>333.576183819236</v>
       </c>
       <c r="S10">
-        <v>0.002196041046447992</v>
+        <v>0.006817805686626474</v>
       </c>
       <c r="T10">
-        <v>0.002196041046447992</v>
+        <v>0.006817805686626474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H11">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I11">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J11">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>107.146858</v>
       </c>
       <c r="O11">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P11">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q11">
-        <v>115.0820233462091</v>
+        <v>113.9909111755758</v>
       </c>
       <c r="R11">
-        <v>1035.738210115882</v>
+        <v>1025.918200580182</v>
       </c>
       <c r="S11">
-        <v>0.007548225645909136</v>
+        <v>0.02096825637204205</v>
       </c>
       <c r="T11">
-        <v>0.007548225645909136</v>
+        <v>0.02096825637204205</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H12">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I12">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J12">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N12">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O12">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P12">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q12">
-        <v>85.22787866461067</v>
+        <v>87.44847846521311</v>
       </c>
       <c r="R12">
-        <v>767.050907981496</v>
+        <v>787.036306186918</v>
       </c>
       <c r="S12">
-        <v>0.005590093402748967</v>
+        <v>0.01608586243318381</v>
       </c>
       <c r="T12">
-        <v>0.005590093402748969</v>
+        <v>0.01608586243318381</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H13">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I13">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J13">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N13">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O13">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P13">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q13">
-        <v>167.1357235006446</v>
+        <v>143.8741585367217</v>
       </c>
       <c r="R13">
-        <v>1504.221511505802</v>
+        <v>1294.867426830495</v>
       </c>
       <c r="S13">
-        <v>0.01096242590973442</v>
+        <v>0.0264651822710949</v>
       </c>
       <c r="T13">
-        <v>0.01096242590973442</v>
+        <v>0.0264651822710949</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H14">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I14">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J14">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N14">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O14">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P14">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q14">
-        <v>644.8522637499638</v>
+        <v>457.3733106406173</v>
       </c>
       <c r="R14">
-        <v>5803.670373749674</v>
+        <v>4116.359795765556</v>
       </c>
       <c r="S14">
-        <v>0.04229583607873173</v>
+        <v>0.08413232894042308</v>
       </c>
       <c r="T14">
-        <v>0.04229583607873173</v>
+        <v>0.08413232894042308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H15">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I15">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J15">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>107.146858</v>
       </c>
       <c r="O15">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P15">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q15">
-        <v>2216.484251482005</v>
+        <v>1406.657988809225</v>
       </c>
       <c r="R15">
-        <v>19948.35826333805</v>
+        <v>12659.92189928302</v>
       </c>
       <c r="S15">
-        <v>0.1453791199035371</v>
+        <v>0.2587501497527519</v>
       </c>
       <c r="T15">
-        <v>0.1453791199035371</v>
+        <v>0.2587501497527519</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H16">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I16">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J16">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N16">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O16">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P16">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q16">
-        <v>1641.492262253933</v>
+        <v>1079.122006954009</v>
       </c>
       <c r="R16">
-        <v>14773.4303602854</v>
+        <v>9712.098062586078</v>
       </c>
       <c r="S16">
-        <v>0.107665416641414</v>
+        <v>0.1985009740265365</v>
       </c>
       <c r="T16">
-        <v>0.107665416641414</v>
+        <v>0.1985009740265365</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H17">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I17">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J17">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N17">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O17">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P17">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q17">
-        <v>3219.040543671782</v>
+        <v>1775.419920779155</v>
       </c>
       <c r="R17">
-        <v>28971.36489304604</v>
+        <v>15978.77928701239</v>
       </c>
       <c r="S17">
-        <v>0.2111367499497916</v>
+        <v>0.3265827045595581</v>
       </c>
       <c r="T17">
-        <v>0.2111367499497916</v>
+        <v>0.3265827045595582</v>
       </c>
     </row>
   </sheetData>
